--- a/data/trans_dic/P1001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03106657244320969</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07984800417172759</v>
+        <v>0.0798480041717276</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.0264757617145534</v>
@@ -697,7 +697,7 @@
         <v>0.02709280029247773</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05249261989264745</v>
+        <v>0.05249261989264743</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01346875699649775</v>
+        <v>0.01338947109463529</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009518701596180549</v>
+        <v>0.01053518541495399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01174660826490836</v>
+        <v>0.01042523150057253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007949239764073022</v>
+        <v>0.008084939144497177</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01351065089152915</v>
+        <v>0.01412747602709659</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02689245407180246</v>
+        <v>0.02769361475841442</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01711446996047829</v>
+        <v>0.01710824971063413</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04513537911699217</v>
+        <v>0.04195159498755896</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01793414169010949</v>
+        <v>0.01779306476124827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02197795639446636</v>
+        <v>0.02227876266644053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0182154620074226</v>
+        <v>0.01742452860380824</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03284134863981919</v>
+        <v>0.03005211797006587</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04707329112440686</v>
+        <v>0.04783041132554638</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03534329246800441</v>
+        <v>0.03585790006739645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04232478989069893</v>
+        <v>0.04156187128046591</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06811512567411485</v>
+        <v>0.07078818859782675</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04377258927691061</v>
+        <v>0.04397960642045758</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06935959259757074</v>
+        <v>0.07152851099331287</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05461256636018416</v>
+        <v>0.0556587081445057</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.130288039234785</v>
+        <v>0.1271595737680213</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03949273521218042</v>
+        <v>0.03989579091362834</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04611939103527552</v>
+        <v>0.04669111108988125</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0413341993768704</v>
+        <v>0.04130439286310162</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08410227781623406</v>
+        <v>0.07811068208053164</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02189929394368833</v>
+        <v>0.02192040627281908</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01846977028354873</v>
+        <v>0.01772207075921709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02864318557431513</v>
+        <v>0.02929829099560017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01048711461241145</v>
+        <v>0.008749437377557573</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05225139696760264</v>
+        <v>0.05416379201187921</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03747769072290268</v>
+        <v>0.03557485426816431</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0307778347816795</v>
+        <v>0.03122063996746754</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04030219572148115</v>
+        <v>0.04127027556089316</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04056631136670104</v>
+        <v>0.04045523261104229</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03147114092218076</v>
+        <v>0.03102088677007013</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03354812658349848</v>
+        <v>0.03437743399168569</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03096126182281557</v>
+        <v>0.03131653800876574</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04909700615247328</v>
+        <v>0.04735404096162182</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04750778312959917</v>
+        <v>0.04682986086224264</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06545427127714432</v>
+        <v>0.06621857032511841</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05046314067817775</v>
+        <v>0.0508681053863555</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09625086918004069</v>
+        <v>0.09496984887431613</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07626313334065589</v>
+        <v>0.07311874913201721</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06458586099453772</v>
+        <v>0.06514336211642807</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09183790030447037</v>
+        <v>0.08986521753861867</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0649819777192714</v>
+        <v>0.06467369013713305</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.055800853802001</v>
+        <v>0.05441188465334789</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05698208195224576</v>
+        <v>0.05854431215793995</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0635081237450579</v>
+        <v>0.06378091191067238</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05742514551075409</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05670359218529811</v>
+        <v>0.0567035921852981</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02711162299382639</v>
+        <v>0.02650287856140039</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03842081411413948</v>
+        <v>0.03819233871394657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03236442000291719</v>
+        <v>0.03149608632225086</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0349149188137765</v>
+        <v>0.03633313131676279</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04894736426083578</v>
+        <v>0.05017399195418217</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09249489221369334</v>
+        <v>0.09084452001259931</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05114039356860832</v>
+        <v>0.05049115449560961</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04578306070435776</v>
+        <v>0.04555033732228441</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04337749241746831</v>
+        <v>0.04274175033542581</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07076123590732027</v>
+        <v>0.07098010318384372</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04608376053215232</v>
+        <v>0.04498979585309546</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04521658760277483</v>
+        <v>0.04448153368675923</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06024065685499425</v>
+        <v>0.06112183537280866</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0763472936230857</v>
+        <v>0.07459544661424601</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06802956110789239</v>
+        <v>0.06669639317641775</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07463300981512577</v>
+        <v>0.07475284293037708</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08804136907202213</v>
+        <v>0.08927679745708841</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.142167636061193</v>
+        <v>0.1409288272313407</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08675670743383805</v>
+        <v>0.09071073857101594</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07828044798192084</v>
+        <v>0.07970812475294377</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06969680661270659</v>
+        <v>0.0682482915121965</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1024674877309986</v>
+        <v>0.1028218660730969</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07118448746287233</v>
+        <v>0.07134642422983982</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07144869041531984</v>
+        <v>0.06997331503686238</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.06891249569242086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06450770594553615</v>
+        <v>0.06450770594553613</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1126171733209802</v>
@@ -1093,7 +1093,7 @@
         <v>0.1040828741538373</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08946162913157817</v>
+        <v>0.08946162913157818</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0874505322454532</v>
@@ -1105,7 +1105,7 @@
         <v>0.08653880775878535</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07729362413932811</v>
+        <v>0.07729362413932812</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04352294685817691</v>
+        <v>0.04429074134420226</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05008633800607423</v>
+        <v>0.04914990618117086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0499354614809474</v>
+        <v>0.05009341896573304</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04672460088172521</v>
+        <v>0.04569256026526669</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08504641152392141</v>
+        <v>0.08859159139748098</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1050066141465585</v>
+        <v>0.1058270263663337</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08119012663137945</v>
+        <v>0.08115324346757857</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07373939901063786</v>
+        <v>0.0734287095028839</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07097236050367182</v>
+        <v>0.07066410792644792</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08538601883871694</v>
+        <v>0.08443872247085829</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07088920725094676</v>
+        <v>0.07144536474608082</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06623730663474046</v>
+        <v>0.06508853477202629</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08781931658385683</v>
+        <v>0.09213274893122791</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09389581551832366</v>
+        <v>0.09290988175433332</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09603307855451283</v>
+        <v>0.09240755863596045</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08590258678306788</v>
+        <v>0.0862108915525738</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1401694189405421</v>
+        <v>0.1403109878143137</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1663790034807864</v>
+        <v>0.1657713319281852</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1316150987501165</v>
+        <v>0.1287878763174266</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1072865639315307</v>
+        <v>0.1086198298653581</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1064184112087865</v>
+        <v>0.1068259142599297</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1214203672614549</v>
+        <v>0.1230693496238297</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1027144883790981</v>
+        <v>0.1033572606881952</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09279730242300072</v>
+        <v>0.09194527751276678</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.06839123957921921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07164591507378729</v>
+        <v>0.07164591507378727</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.110329131108426</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05993167462282443</v>
+        <v>0.05828978252113073</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07162843252006963</v>
+        <v>0.06994205292085945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04735543608333439</v>
+        <v>0.04841735899702492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05387119747850921</v>
+        <v>0.05301948340523311</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08286912531315657</v>
+        <v>0.0831997901769319</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1672827739371311</v>
+        <v>0.1686091791976789</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.143779688326765</v>
+        <v>0.1459351166807857</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1141909672787274</v>
+        <v>0.1141634387795554</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07700791918243663</v>
+        <v>0.07735458328563316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1283577777896561</v>
+        <v>0.1283241200967923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1024145149314315</v>
+        <v>0.1029207642774617</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08947607138527504</v>
+        <v>0.08856063195010101</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1126675302062995</v>
+        <v>0.1116013735002678</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1306645955954531</v>
+        <v>0.1286910748742467</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09740215364512432</v>
+        <v>0.09577369944553982</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09320011562109135</v>
+        <v>0.095254986422453</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1431204426032748</v>
+        <v>0.1446284142839323</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2504110911684616</v>
+        <v>0.2443912445029977</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2159969118924945</v>
+        <v>0.2162576761307385</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1593652059055146</v>
+        <v>0.1583079602338349</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1212316291549107</v>
+        <v>0.1167014868973395</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1776145150201987</v>
+        <v>0.1771800223868152</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1452462094450636</v>
+        <v>0.1481132127321929</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1186011952076697</v>
+        <v>0.1188272461907364</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.08602688773438553</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.07663585063480434</v>
+        <v>0.07663585063480435</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1417385320588998</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08466863722594122</v>
+        <v>0.08562206215527983</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08431001719294844</v>
+        <v>0.08340514225960188</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0588521911473933</v>
+        <v>0.06030441588118315</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05738343095335033</v>
+        <v>0.05601976837846916</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1087463318144623</v>
+        <v>0.1080134248821126</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1888202416806731</v>
+        <v>0.1858111025294592</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1769530152732744</v>
+        <v>0.1758198424921809</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1313662959364319</v>
+        <v>0.13240738754904</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1076613503633476</v>
+        <v>0.1077012203046443</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1508645307592134</v>
+        <v>0.1491422299407664</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1303694449872212</v>
+        <v>0.1299600004655243</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09972514546344273</v>
+        <v>0.1015602904512615</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1592360501715846</v>
+        <v>0.1618959283509192</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1653522605832087</v>
+        <v>0.1629095972088441</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1241727733999402</v>
+        <v>0.1236085813896895</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1038200073531874</v>
+        <v>0.1041139844879086</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.178239159010228</v>
+        <v>0.1798076170847096</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2764971063651193</v>
+        <v>0.2722192600046548</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2642823449939967</v>
+        <v>0.2652855530285583</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1838465429395806</v>
+        <v>0.1840168629407369</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1577747786753248</v>
+        <v>0.1583651080004168</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2104576763784152</v>
+        <v>0.2112078229011005</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1854802290329534</v>
+        <v>0.1861755827628822</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1369348426539238</v>
+        <v>0.1349743183837593</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1246393490500369</v>
+        <v>0.1232267979416294</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1701424453125367</v>
+        <v>0.1695709252356585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09280767202498887</v>
+        <v>0.0902301127451642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0929044148248139</v>
+        <v>0.09408820397302303</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1420216801997933</v>
+        <v>0.1431379241430287</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2866128442786877</v>
+        <v>0.2847228607896182</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2283935041705598</v>
+        <v>0.222041286894547</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2345719295174185</v>
+        <v>0.23769385068651</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1485812108563903</v>
+        <v>0.1511559319036445</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.250060620729521</v>
+        <v>0.2549232647961654</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1835489948356213</v>
+        <v>0.1839384231118495</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1844622295180017</v>
+        <v>0.1858574251869545</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2195622761540558</v>
+        <v>0.2224255240548044</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2870945362003171</v>
+        <v>0.2836102115762062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1669860599717878</v>
+        <v>0.1697039052705908</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1571866297071769</v>
+        <v>0.1573321770646953</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2352762356643623</v>
+        <v>0.2334715604109717</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3837032110577789</v>
+        <v>0.3867473213396057</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3306845441492512</v>
+        <v>0.3255701477781723</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2983420038455503</v>
+        <v>0.2984356364332345</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2168335314900025</v>
+        <v>0.2157645427383847</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3292847492450049</v>
+        <v>0.3310258375377608</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2564547520569692</v>
+        <v>0.253510275519912</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2318695337895113</v>
+        <v>0.2308280805499875</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.06068173036960494</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.06034418047230313</v>
+        <v>0.06034418047230312</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.09418657804059452</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05267195587884388</v>
+        <v>0.05227240151528485</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06185224740457211</v>
+        <v>0.06209904754070825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05308202963644859</v>
+        <v>0.05218621363497108</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05179837951076721</v>
+        <v>0.05271725443414551</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0846746605406602</v>
+        <v>0.08514528957696474</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1351450546101484</v>
+        <v>0.1328920882567099</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1112968044537273</v>
+        <v>0.1100852129923712</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1088412833356539</v>
+        <v>0.1092219723121166</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07135228189787658</v>
+        <v>0.07061828985087525</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1017464252094645</v>
+        <v>0.10149722128998</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08441959689155042</v>
+        <v>0.08508695632309336</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.08314243605570952</v>
+        <v>0.08331820475284615</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06912925252787379</v>
+        <v>0.0688601605854352</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08103173190313216</v>
+        <v>0.08076124227616446</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0704316135563418</v>
+        <v>0.06900440433799734</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06911117552960751</v>
+        <v>0.06983770990662558</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.104376920821613</v>
+        <v>0.1052476433582234</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1594838828747832</v>
+        <v>0.1582282432118647</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1341653060517832</v>
+        <v>0.1346688398454618</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.126222377323017</v>
+        <v>0.1277452635284213</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08440880002483227</v>
+        <v>0.08408111226743126</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1176697260291787</v>
+        <v>0.1170330096461511</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.09925869205533623</v>
+        <v>0.09907903462254825</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.09576551880940681</v>
+        <v>0.09619926319098088</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6654</v>
+        <v>6615</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4323</v>
+        <v>4785</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4927</v>
+        <v>4373</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3242</v>
+        <v>3297</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6316</v>
+        <v>6604</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11570</v>
+        <v>11915</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6773</v>
+        <v>6771</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16362</v>
+        <v>15208</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17245</v>
+        <v>17109</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19437</v>
+        <v>19703</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14850</v>
+        <v>14205</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>25298</v>
+        <v>23149</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23257</v>
+        <v>23631</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16051</v>
+        <v>16285</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17754</v>
+        <v>17434</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27777</v>
+        <v>28867</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20463</v>
+        <v>20560</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29841</v>
+        <v>30774</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21613</v>
+        <v>22027</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47231</v>
+        <v>46097</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37974</v>
+        <v>38362</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40787</v>
+        <v>41292</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>33696</v>
+        <v>33672</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>64784</v>
+        <v>60169</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16107</v>
+        <v>16122</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12690</v>
+        <v>12177</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16914</v>
+        <v>17301</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5001</v>
+        <v>4173</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32683</v>
+        <v>33879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22871</v>
+        <v>21710</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17345</v>
+        <v>17594</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20195</v>
+        <v>20680</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>55210</v>
+        <v>55059</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>40829</v>
+        <v>40245</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>38716</v>
+        <v>39673</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>30279</v>
+        <v>30627</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36110</v>
+        <v>34828</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32642</v>
+        <v>32176</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38650</v>
+        <v>39102</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24065</v>
+        <v>24258</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>60204</v>
+        <v>59403</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>46540</v>
+        <v>44621</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36397</v>
+        <v>36711</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>46018</v>
+        <v>45030</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>88439</v>
+        <v>88020</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>72393</v>
+        <v>70591</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>65760</v>
+        <v>67562</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>62109</v>
+        <v>62376</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17315</v>
+        <v>16927</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26162</v>
+        <v>26006</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21655</v>
+        <v>21074</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21676</v>
+        <v>22557</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33761</v>
+        <v>34607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>65750</v>
+        <v>64577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33824</v>
+        <v>33394</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28483</v>
+        <v>28339</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>57623</v>
+        <v>56779</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>98484</v>
+        <v>98788</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>61314</v>
+        <v>59858</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>56203</v>
+        <v>55289</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38474</v>
+        <v>39037</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51987</v>
+        <v>50794</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45518</v>
+        <v>44626</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>46335</v>
+        <v>46409</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>60726</v>
+        <v>61578</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>101060</v>
+        <v>100179</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>57380</v>
+        <v>59995</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48701</v>
+        <v>49590</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>92586</v>
+        <v>90662</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>142612</v>
+        <v>143105</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>94710</v>
+        <v>94925</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>88809</v>
+        <v>86975</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22595</v>
+        <v>22993</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30731</v>
+        <v>30157</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32261</v>
+        <v>32363</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>32736</v>
+        <v>32013</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>43854</v>
+        <v>45682</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>64705</v>
+        <v>65211</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>52699</v>
+        <v>52675</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>54287</v>
+        <v>54058</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>73441</v>
+        <v>73122</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>105004</v>
+        <v>103840</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>91810</v>
+        <v>92531</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>95171</v>
+        <v>93520</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>45591</v>
+        <v>47830</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57611</v>
+        <v>57006</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>62042</v>
+        <v>59700</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>60185</v>
+        <v>60401</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>72277</v>
+        <v>72350</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>102523</v>
+        <v>102148</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>85428</v>
+        <v>83593</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>78984</v>
+        <v>79965</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>110121</v>
+        <v>110542</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>149318</v>
+        <v>151346</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>133028</v>
+        <v>133861</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>133332</v>
+        <v>132108</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23176</v>
+        <v>22541</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>30759</v>
+        <v>30035</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22632</v>
+        <v>23140</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>32826</v>
+        <v>32307</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>33478</v>
+        <v>33612</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>74733</v>
+        <v>75325</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>71437</v>
+        <v>72508</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>69489</v>
+        <v>69473</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>60890</v>
+        <v>61164</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>112464</v>
+        <v>112434</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>99830</v>
+        <v>100324</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>108971</v>
+        <v>107856</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43570</v>
+        <v>43157</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>56111</v>
+        <v>55264</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>46550</v>
+        <v>45772</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>56791</v>
+        <v>58043</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>57819</v>
+        <v>58428</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>111870</v>
+        <v>109181</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>107318</v>
+        <v>107447</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>96980</v>
+        <v>96336</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>95857</v>
+        <v>92275</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>155621</v>
+        <v>155241</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>141581</v>
+        <v>144376</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>144442</v>
+        <v>144718</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>24773</v>
+        <v>25052</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>26118</v>
+        <v>25838</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>19676</v>
+        <v>20162</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>23326</v>
+        <v>22772</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>37293</v>
+        <v>37041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>66663</v>
+        <v>65601</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>66846</v>
+        <v>66418</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>57692</v>
+        <v>58149</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>68421</v>
+        <v>68446</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>99999</v>
+        <v>98857</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>92835</v>
+        <v>92543</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>84334</v>
+        <v>85885</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>46590</v>
+        <v>47368</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>51224</v>
+        <v>50467</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41515</v>
+        <v>41326</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>42202</v>
+        <v>42322</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>61124</v>
+        <v>61662</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>97618</v>
+        <v>96107</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>99836</v>
+        <v>100215</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>80739</v>
+        <v>80814</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>100269</v>
+        <v>100644</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>139499</v>
+        <v>139996</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>132079</v>
+        <v>132574</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>115800</v>
+        <v>114142</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>26160</v>
+        <v>25863</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>42510</v>
+        <v>42367</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>23851</v>
+        <v>23189</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>28762</v>
+        <v>29128</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>47422</v>
+        <v>47795</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>111486</v>
+        <v>110751</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>91396</v>
+        <v>88854</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>108647</v>
+        <v>110093</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>80797</v>
+        <v>82197</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>159746</v>
+        <v>162853</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>120622</v>
+        <v>120878</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>142544</v>
+        <v>143622</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>46082</v>
+        <v>46683</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>71731</v>
+        <v>70860</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>42915</v>
+        <v>43614</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>48662</v>
+        <v>48707</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>78561</v>
+        <v>77958</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>149252</v>
+        <v>150437</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>132330</v>
+        <v>130283</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>138184</v>
+        <v>138227</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>117912</v>
+        <v>117331</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>210357</v>
+        <v>211469</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>168534</v>
+        <v>166599</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>179178</v>
+        <v>178374</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>172582</v>
+        <v>171273</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>211831</v>
+        <v>212676</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>180179</v>
+        <v>177138</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>182929</v>
+        <v>186174</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>286132</v>
+        <v>287723</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>480618</v>
+        <v>472605</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>394496</v>
+        <v>390202</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>406283</v>
+        <v>407704</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>474902</v>
+        <v>470017</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>710302</v>
+        <v>708562</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>585778</v>
+        <v>590409</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>603977</v>
+        <v>605254</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>226505</v>
+        <v>225623</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>277517</v>
+        <v>276590</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>239070</v>
+        <v>234225</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>244070</v>
+        <v>246636</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>352710</v>
+        <v>355653</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>567174</v>
+        <v>562709</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>475555</v>
+        <v>477339</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>471164</v>
+        <v>476848</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>561803</v>
+        <v>559622</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>821464</v>
+        <v>817019</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>688745</v>
+        <v>687499</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>695676</v>
+        <v>698827</v>
       </c>
     </row>
     <row r="36">
